--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Espace\SmartParking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56C6EB2-4F77-4A06-93D3-6E060B293408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3528FA17-F333-4C1E-B56B-3A1F510C0F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F061232-1DF5-49EC-B555-23997BD085A7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{8F061232-1DF5-49EC-B555-23997BD085A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
+    <sheet name="SerialPort" sheetId="2" r:id="rId2"/>
+    <sheet name="ParkingLane" sheetId="3" r:id="rId3"/>
+    <sheet name="Parking" sheetId="4" r:id="rId4"/>
+    <sheet name="ParkingSlot" sheetId="5" r:id="rId5"/>
+    <sheet name="ParkingSlotConfig" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>Tên</t>
   </si>
@@ -136,6 +141,120 @@
   </si>
   <si>
     <t>P@sssword7</t>
+  </si>
+  <si>
+    <t>Mã thiết bị</t>
+  </si>
+  <si>
+    <t>Tốc độ</t>
+  </si>
+  <si>
+    <t>SER1</t>
+  </si>
+  <si>
+    <t>ESPACE-M0011</t>
+  </si>
+  <si>
+    <t>SER2</t>
+  </si>
+  <si>
+    <t>SER3</t>
+  </si>
+  <si>
+    <t>SER4</t>
+  </si>
+  <si>
+    <t>SER5</t>
+  </si>
+  <si>
+    <t>SER6</t>
+  </si>
+  <si>
+    <t>SER7</t>
+  </si>
+  <si>
+    <t>SER8</t>
+  </si>
+  <si>
+    <t>ESPACE-M0012</t>
+  </si>
+  <si>
+    <t>ESPACE-M0013</t>
+  </si>
+  <si>
+    <t>ESPACE-M0014</t>
+  </si>
+  <si>
+    <t>ESPACE-M0015</t>
+  </si>
+  <si>
+    <t>ESPACE-M0016</t>
+  </si>
+  <si>
+    <t>ESPACE-M0017</t>
+  </si>
+  <si>
+    <t>ESPACE-M0018</t>
+  </si>
+  <si>
+    <t>Tên bãi xe</t>
+  </si>
+  <si>
+    <t>Bãi Tầng 1 chung cư EJ</t>
+  </si>
+  <si>
+    <t>Tên làn xe</t>
+  </si>
+  <si>
+    <t>Tên camera</t>
+  </si>
+  <si>
+    <t>Tên cổng đa năng</t>
+  </si>
+  <si>
+    <t>CAM5,CAM6</t>
+  </si>
+  <si>
+    <t>Làn 3 Cổng chính</t>
+  </si>
+  <si>
+    <t>Làn 4 Cổng chính</t>
+  </si>
+  <si>
+    <t>CAM7,CAM8</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Xe số</t>
+  </si>
+  <si>
+    <t>Xe máy số</t>
+  </si>
+  <si>
+    <t>Xe tay ga</t>
+  </si>
+  <si>
+    <t>Xe máy tay ga</t>
+  </si>
+  <si>
+    <t>Xe đạp điện</t>
+  </si>
+  <si>
+    <t>Xe đạp</t>
+  </si>
+  <si>
+    <t>Xe con</t>
+  </si>
+  <si>
+    <t>Ô tô dưới 7 chỗ</t>
+  </si>
+  <si>
+    <t>Bãi Tầng 1 chung cư EF</t>
+  </si>
+  <si>
+    <t>Xe tăng</t>
   </si>
 </sst>
 </file>
@@ -506,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DA4CBE-9DB8-4CD3-AFD2-DE2516647794}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,4 +880,377 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CDDEFB-B6E5-45A0-A9A2-86DE21E5DF09}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>9600</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>9600</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>9600</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>9600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>9600</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>9600</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>9600</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>9600</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43901675-8AB6-4AC4-B786-E6F418557094}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA181BF-9E73-4157-B08B-1FEC59D5F28A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1795C64B-A8E2-4C8B-A3C0-DEF985D3E9F2}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9621F-96BF-4A37-9BCE-25A3354CE0AF}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>234</v>
+      </c>
+      <c r="C6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>